--- a/output/Resultados/6.Descriptivos/3b.MuestraUPMS_TrimestrePanelXEstrato.xlsx
+++ b/output/Resultados/6.Descriptivos/3b.MuestraUPMS_TrimestrePanelXEstrato.xlsx
@@ -511,5522 +511,5522 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R2">
         <v>60</v>
       </c>
       <c r="S2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD2">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B3">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C3">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G3">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H3">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L3">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M3">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N3">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q3">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R3">
         <v>60</v>
       </c>
       <c r="S3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T3">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U3">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V3">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y3">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z3">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA3">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB3">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC3">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD3">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B4">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G4">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H4">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L4">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M4">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N4">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q4">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R4">
         <v>60</v>
       </c>
       <c r="S4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T4">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U4">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V4">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W4">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y4">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA4">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB4">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD4">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B5">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C5">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G5">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H5">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I5">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J5">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L5">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M5">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N5">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P5">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q5">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R5">
         <v>60</v>
       </c>
       <c r="S5">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T5">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U5">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V5">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W5">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y5">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z5">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA5">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB5">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC5">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD5">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B6">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C6">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G6">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H6">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J6">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K6">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M6">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N6">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P6">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q6">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R6">
         <v>60</v>
       </c>
       <c r="S6">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T6">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U6">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V6">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W6">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X6">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y6">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z6">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA6">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB6">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC6">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD6">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B7">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F7">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G7">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H7">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M7">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O7">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q7">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R7">
         <v>60</v>
       </c>
       <c r="S7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T7">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U7">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V7">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W7">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y7">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA7">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB7">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD7">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B8">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H8">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L8">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N8">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R8">
         <v>60</v>
       </c>
       <c r="S8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T8">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V8">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y8">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z8">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA8">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC8">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD8">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B9">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E9">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G9">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H9">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L9">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M9">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N9">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O9">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q9">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R9">
         <v>60</v>
       </c>
       <c r="S9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T9">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U9">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V9">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W9">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB9">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD9">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B10">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C10">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G10">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H10">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J10">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K10">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L10">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M10">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N10">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O10">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P10">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R10">
         <v>60</v>
       </c>
       <c r="S10">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T10">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V10">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y10">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA10">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB10">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD10">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B11">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E11">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H11">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L11">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N11">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q11">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R11">
         <v>60</v>
       </c>
       <c r="S11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T11">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V11">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W11">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y11">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z11">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA11">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB11">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC11">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD11">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B12">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C12">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E12">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G12">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H12">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I12">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J12">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K12">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L12">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M12">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N12">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O12">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P12">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q12">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R12">
         <v>60</v>
       </c>
       <c r="S12">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T12">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U12">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V12">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W12">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X12">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y12">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z12">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA12">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB12">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC12">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD12">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B13">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C13">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E13">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F13">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G13">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H13">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I13">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J13">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L13">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M13">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N13">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O13">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P13">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q13">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R13">
         <v>60</v>
       </c>
       <c r="S13">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T13">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U13">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V13">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W13">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X13">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y13">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z13">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA13">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB13">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC13">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD13">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B14">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C14">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E14">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F14">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G14">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H14">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I14">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J14">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L14">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M14">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N14">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O14">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P14">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q14">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R14">
         <v>60</v>
       </c>
       <c r="S14">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T14">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U14">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V14">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W14">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X14">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y14">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z14">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA14">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB14">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC14">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD14">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B15">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C15">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E15">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G15">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H15">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I15">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J15">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K15">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L15">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M15">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N15">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O15">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P15">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q15">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R15">
         <v>60</v>
       </c>
       <c r="S15">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T15">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U15">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V15">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W15">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X15">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y15">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z15">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA15">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB15">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC15">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD15">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B16">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C16">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E16">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F16">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G16">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H16">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I16">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J16">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K16">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L16">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M16">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N16">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O16">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P16">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q16">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R16">
         <v>60</v>
       </c>
       <c r="S16">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T16">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U16">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V16">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W16">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X16">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y16">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z16">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA16">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB16">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC16">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD16">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B17">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C17">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E17">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F17">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G17">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H17">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I17">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J17">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L17">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M17">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N17">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O17">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P17">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q17">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R17">
         <v>60</v>
       </c>
       <c r="S17">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T17">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U17">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V17">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W17">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y17">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z17">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA17">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB17">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC17">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD17">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B18">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C18">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E18">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F18">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G18">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H18">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I18">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J18">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L18">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M18">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N18">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O18">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P18">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q18">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R18">
         <v>60</v>
       </c>
       <c r="S18">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T18">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U18">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V18">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W18">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X18">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y18">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z18">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA18">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB18">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC18">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD18">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B19">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C19">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E19">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F19">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G19">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H19">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I19">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J19">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K19">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L19">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M19">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N19">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O19">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P19">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q19">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R19">
         <v>60</v>
       </c>
       <c r="S19">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T19">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U19">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V19">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W19">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X19">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y19">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z19">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA19">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB19">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC19">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD19">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B20">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C20">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E20">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F20">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G20">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H20">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I20">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J20">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K20">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L20">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M20">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N20">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O20">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P20">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q20">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R20">
         <v>60</v>
       </c>
       <c r="S20">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T20">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U20">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V20">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W20">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X20">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y20">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z20">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA20">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB20">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC20">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD20">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B21">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C21">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E21">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F21">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G21">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H21">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I21">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J21">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K21">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L21">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M21">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N21">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O21">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P21">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q21">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R21">
         <v>60</v>
       </c>
       <c r="S21">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T21">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U21">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V21">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W21">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X21">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y21">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z21">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA21">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB21">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC21">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD21">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B22">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C22">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E22">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F22">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G22">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H22">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I22">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J22">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K22">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L22">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M22">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N22">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O22">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P22">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q22">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R22">
         <v>60</v>
       </c>
       <c r="S22">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T22">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U22">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V22">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W22">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X22">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y22">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z22">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA22">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB22">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC22">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD22">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B23">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C23">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D23">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E23">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F23">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G23">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H23">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I23">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J23">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K23">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L23">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M23">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N23">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O23">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P23">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q23">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R23">
         <v>60</v>
       </c>
       <c r="S23">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T23">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U23">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V23">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W23">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X23">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y23">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z23">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA23">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB23">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC23">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD23">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B24">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C24">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E24">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F24">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G24">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H24">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I24">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J24">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K24">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L24">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M24">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N24">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O24">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P24">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q24">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R24">
         <v>60</v>
       </c>
       <c r="S24">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T24">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U24">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V24">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W24">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X24">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y24">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z24">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA24">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB24">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC24">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD24">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B25">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C25">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E25">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F25">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G25">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H25">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I25">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J25">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K25">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L25">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M25">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N25">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O25">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P25">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q25">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R25">
         <v>60</v>
       </c>
       <c r="S25">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T25">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U25">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V25">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W25">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X25">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y25">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z25">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA25">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB25">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC25">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD25">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B26">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C26">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D26">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E26">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F26">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G26">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H26">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I26">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J26">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K26">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L26">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M26">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N26">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O26">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P26">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q26">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R26">
         <v>60</v>
       </c>
       <c r="S26">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T26">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U26">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V26">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W26">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X26">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y26">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z26">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA26">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB26">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC26">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD26">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B27">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C27">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E27">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F27">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G27">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H27">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I27">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J27">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K27">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L27">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M27">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N27">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O27">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P27">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q27">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R27">
         <v>60</v>
       </c>
       <c r="S27">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T27">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U27">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V27">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W27">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X27">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y27">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z27">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA27">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB27">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC27">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD27">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B28">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C28">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E28">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F28">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G28">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H28">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I28">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J28">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K28">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L28">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M28">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N28">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O28">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P28">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q28">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R28">
         <v>60</v>
       </c>
       <c r="S28">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T28">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U28">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V28">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W28">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X28">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y28">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z28">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA28">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB28">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC28">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD28">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B29">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C29">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E29">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F29">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G29">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H29">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I29">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J29">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K29">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L29">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M29">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N29">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O29">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P29">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q29">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R29">
         <v>60</v>
       </c>
       <c r="S29">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T29">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U29">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V29">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W29">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X29">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y29">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z29">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA29">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB29">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC29">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD29">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B30">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C30">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E30">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F30">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G30">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H30">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I30">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J30">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K30">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L30">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M30">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N30">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O30">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P30">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q30">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R30">
         <v>60</v>
       </c>
       <c r="S30">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T30">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U30">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V30">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W30">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X30">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y30">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z30">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA30">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB30">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC30">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD30">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B31">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C31">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E31">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F31">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G31">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H31">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I31">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J31">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K31">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L31">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M31">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N31">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O31">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P31">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q31">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R31">
         <v>60</v>
       </c>
       <c r="S31">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T31">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U31">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V31">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W31">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X31">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y31">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z31">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA31">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB31">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC31">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD31">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B32">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C32">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E32">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F32">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G32">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H32">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I32">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J32">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K32">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L32">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M32">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N32">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O32">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P32">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q32">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R32">
         <v>60</v>
       </c>
       <c r="S32">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T32">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U32">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V32">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W32">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X32">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y32">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z32">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA32">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB32">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC32">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD32">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B33">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C33">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E33">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F33">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G33">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H33">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I33">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J33">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K33">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L33">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M33">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N33">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O33">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P33">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q33">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R33">
         <v>60</v>
       </c>
       <c r="S33">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T33">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U33">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V33">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W33">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y33">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z33">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA33">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB33">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC33">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD33">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B34">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C34">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E34">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F34">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G34">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H34">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I34">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J34">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K34">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L34">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M34">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N34">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O34">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P34">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q34">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R34">
         <v>60</v>
       </c>
       <c r="S34">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T34">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U34">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V34">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W34">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X34">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y34">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z34">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA34">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB34">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC34">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD34">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B35">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C35">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E35">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F35">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G35">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H35">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I35">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J35">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K35">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L35">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M35">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N35">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O35">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P35">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q35">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R35">
         <v>60</v>
       </c>
       <c r="S35">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T35">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U35">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V35">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W35">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X35">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y35">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z35">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA35">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB35">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC35">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD35">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B36">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C36">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E36">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F36">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G36">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H36">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I36">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J36">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K36">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L36">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M36">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N36">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O36">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P36">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q36">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R36">
         <v>60</v>
       </c>
       <c r="S36">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T36">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U36">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V36">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W36">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X36">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y36">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z36">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA36">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB36">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC36">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD36">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B37">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C37">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E37">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F37">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G37">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H37">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I37">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J37">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K37">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L37">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M37">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N37">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O37">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P37">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q37">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R37">
         <v>60</v>
       </c>
       <c r="S37">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T37">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U37">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V37">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W37">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X37">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y37">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z37">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA37">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB37">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC37">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD37">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B38">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C38">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E38">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F38">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G38">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H38">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I38">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J38">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K38">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L38">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M38">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N38">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O38">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P38">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q38">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R38">
         <v>60</v>
       </c>
       <c r="S38">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T38">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U38">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V38">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W38">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X38">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y38">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z38">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA38">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB38">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC38">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD38">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B39">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C39">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E39">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F39">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G39">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H39">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I39">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J39">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K39">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L39">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M39">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N39">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O39">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P39">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q39">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R39">
         <v>60</v>
       </c>
       <c r="S39">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T39">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U39">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V39">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W39">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X39">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y39">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z39">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA39">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB39">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC39">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD39">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B40">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C40">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E40">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F40">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G40">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H40">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I40">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J40">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K40">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L40">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M40">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N40">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O40">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P40">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q40">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R40">
         <v>60</v>
       </c>
       <c r="S40">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T40">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U40">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V40">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W40">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X40">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y40">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z40">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA40">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB40">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC40">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD40">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B41">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C41">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D41">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E41">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F41">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G41">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H41">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I41">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J41">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K41">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L41">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M41">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N41">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O41">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P41">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q41">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R41">
         <v>60</v>
       </c>
       <c r="S41">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T41">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U41">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V41">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W41">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X41">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y41">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z41">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA41">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB41">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC41">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD41">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B42">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C42">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D42">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E42">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F42">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G42">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H42">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I42">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J42">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K42">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L42">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M42">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N42">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O42">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P42">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q42">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R42">
         <v>60</v>
       </c>
       <c r="S42">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T42">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U42">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V42">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W42">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X42">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y42">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z42">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA42">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB42">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC42">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD42">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B43">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C43">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D43">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E43">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F43">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G43">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H43">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I43">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J43">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K43">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L43">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M43">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N43">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O43">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P43">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q43">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R43">
         <v>60</v>
       </c>
       <c r="S43">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T43">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U43">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V43">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W43">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X43">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y43">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z43">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA43">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB43">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC43">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD43">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B44">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C44">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D44">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E44">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F44">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G44">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H44">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I44">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J44">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K44">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L44">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M44">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N44">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O44">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P44">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q44">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R44">
         <v>60</v>
       </c>
       <c r="S44">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T44">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U44">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V44">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W44">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X44">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y44">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z44">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA44">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB44">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC44">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD44">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B45">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C45">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D45">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E45">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F45">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G45">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H45">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I45">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J45">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K45">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L45">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M45">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N45">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O45">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P45">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q45">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R45">
         <v>60</v>
       </c>
       <c r="S45">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T45">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U45">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V45">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W45">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y45">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z45">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA45">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB45">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC45">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD45">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B46">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C46">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D46">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E46">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F46">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G46">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H46">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I46">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J46">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K46">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L46">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M46">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N46">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O46">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P46">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q46">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R46">
         <v>60</v>
       </c>
       <c r="S46">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T46">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U46">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V46">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W46">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X46">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y46">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z46">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA46">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB46">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC46">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD46">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B47">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C47">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D47">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E47">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F47">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G47">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H47">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I47">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J47">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K47">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L47">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M47">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N47">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O47">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P47">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q47">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R47">
         <v>60</v>
       </c>
       <c r="S47">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T47">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U47">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V47">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W47">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X47">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y47">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z47">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA47">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB47">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC47">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD47">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B48">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C48">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D48">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E48">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F48">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G48">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H48">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I48">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J48">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K48">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L48">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M48">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N48">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O48">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P48">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q48">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R48">
         <v>60</v>
       </c>
       <c r="S48">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T48">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U48">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V48">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W48">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X48">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y48">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z48">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA48">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB48">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC48">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD48">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B49">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C49">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E49">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F49">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G49">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H49">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I49">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J49">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K49">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L49">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M49">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N49">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O49">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P49">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q49">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R49">
         <v>60</v>
       </c>
       <c r="S49">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T49">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U49">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V49">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W49">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X49">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y49">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z49">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA49">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB49">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC49">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD49">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B50">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C50">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D50">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E50">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F50">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G50">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H50">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I50">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J50">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K50">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L50">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M50">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N50">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O50">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P50">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q50">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R50">
         <v>60</v>
       </c>
       <c r="S50">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T50">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U50">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V50">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W50">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X50">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y50">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z50">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA50">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB50">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC50">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD50">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B51">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C51">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D51">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E51">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F51">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G51">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H51">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I51">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J51">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K51">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L51">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M51">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N51">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O51">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P51">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q51">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R51">
         <v>60</v>
       </c>
       <c r="S51">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T51">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U51">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V51">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W51">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X51">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y51">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z51">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA51">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB51">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC51">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD51">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B52">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C52">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D52">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E52">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F52">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G52">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H52">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I52">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J52">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K52">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L52">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M52">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N52">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O52">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P52">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q52">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R52">
         <v>60</v>
       </c>
       <c r="S52">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T52">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U52">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V52">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W52">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X52">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y52">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z52">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA52">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB52">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC52">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD52">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B53">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C53">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D53">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E53">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F53">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G53">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H53">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I53">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J53">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K53">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L53">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M53">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N53">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O53">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P53">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q53">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R53">
         <v>60</v>
       </c>
       <c r="S53">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T53">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U53">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V53">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W53">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X53">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y53">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z53">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA53">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB53">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC53">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD53">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B54">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C54">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D54">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E54">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F54">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G54">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H54">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I54">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J54">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K54">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L54">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M54">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N54">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O54">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P54">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q54">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R54">
         <v>60</v>
       </c>
       <c r="S54">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T54">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U54">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V54">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W54">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X54">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y54">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z54">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA54">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB54">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC54">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD54">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B55">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C55">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D55">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E55">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F55">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G55">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H55">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I55">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J55">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K55">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L55">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M55">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N55">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O55">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P55">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q55">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R55">
         <v>60</v>
       </c>
       <c r="S55">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T55">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U55">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V55">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W55">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X55">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y55">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z55">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA55">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB55">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC55">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD55">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B56">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C56">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D56">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E56">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F56">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G56">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H56">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I56">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J56">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K56">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L56">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M56">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N56">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O56">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P56">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q56">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R56">
         <v>60</v>
       </c>
       <c r="S56">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T56">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U56">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V56">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W56">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X56">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y56">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z56">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA56">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB56">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC56">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD56">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B57">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C57">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D57">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E57">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F57">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G57">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H57">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I57">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J57">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K57">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L57">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M57">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N57">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O57">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P57">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q57">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R57">
         <v>60</v>
       </c>
       <c r="S57">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T57">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U57">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V57">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W57">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X57">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y57">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z57">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA57">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB57">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC57">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD57">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B58">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C58">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D58">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E58">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F58">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G58">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H58">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I58">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J58">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K58">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L58">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M58">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N58">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O58">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P58">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q58">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R58">
         <v>60</v>
       </c>
       <c r="S58">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T58">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U58">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V58">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W58">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X58">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y58">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z58">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA58">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB58">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC58">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD58">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B59">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C59">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D59">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E59">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F59">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G59">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H59">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I59">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J59">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K59">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L59">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M59">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N59">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O59">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P59">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q59">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R59">
         <v>60</v>
       </c>
       <c r="S59">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T59">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U59">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V59">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W59">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X59">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y59">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z59">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA59">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB59">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC59">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD59">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B60">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C60">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D60">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E60">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F60">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G60">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H60">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I60">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J60">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K60">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L60">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M60">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N60">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O60">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P60">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q60">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R60">
         <v>60</v>
       </c>
       <c r="S60">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T60">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U60">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V60">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W60">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X60">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y60">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z60">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA60">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB60">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC60">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD60">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B61">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C61">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D61">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E61">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F61">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G61">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H61">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I61">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J61">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K61">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L61">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M61">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N61">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O61">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P61">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q61">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R61">
         <v>60</v>
       </c>
       <c r="S61">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T61">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="U61">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V61">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W61">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X61">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y61">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z61">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA61">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB61">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC61">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD61">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
